--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_Estacionario_ARMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.423838479648916</v>
+        <v>1.339854256034506</v>
       </c>
       <c r="D2">
-        <v>0.1546790406569474</v>
+        <v>0.1939690608838966</v>
       </c>
       <c r="E2">
         <v>0.9990340258287557</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.357253901343046</v>
+        <v>1.383551218795136</v>
       </c>
       <c r="D3">
-        <v>0.1748829620539647</v>
+        <v>0.1803750674153159</v>
       </c>
       <c r="E3">
         <v>0.9990340258287557</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>3.408302450775649</v>
+        <v>3.143603060123953</v>
       </c>
       <c r="D4">
-        <v>0.0006691351590688566</v>
+        <v>0.004717912322937279</v>
       </c>
       <c r="E4">
         <v>0.9990340258287557</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>4.221235948314863</v>
+        <v>3.578152462363672</v>
       </c>
       <c r="D5">
-        <v>2.559660639778194E-05</v>
+        <v>0.001677475799146677</v>
       </c>
       <c r="E5">
         <v>0.9990340258287557</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.1391833279626437</v>
+        <v>-0.1427460643345072</v>
       </c>
       <c r="D6">
-        <v>0.8893219746846166</v>
+        <v>0.8877900384412505</v>
       </c>
       <c r="E6">
         <v>0.9757391647215609</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.760841344934391</v>
+        <v>1.737489102413067</v>
       </c>
       <c r="D7">
-        <v>0.07844728183618255</v>
+        <v>0.0962821173902737</v>
       </c>
       <c r="E7">
         <v>0.9757391647215609</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>3.037656747719707</v>
+        <v>3.147833436542017</v>
       </c>
       <c r="D8">
-        <v>0.002421001882388696</v>
+        <v>0.004671315858655767</v>
       </c>
       <c r="E8">
         <v>0.9757391647215609</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>1.955267411058953</v>
+        <v>2.036330376382686</v>
       </c>
       <c r="D9">
-        <v>0.05071720175165284</v>
+        <v>0.05393123331098915</v>
       </c>
       <c r="E9">
         <v>0.9782786005443032</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>3.258800034462607</v>
+        <v>3.328223344079575</v>
       </c>
       <c r="D10">
-        <v>0.001141210158195571</v>
+        <v>0.003050646215183361</v>
       </c>
       <c r="E10">
         <v>0.9782786005443032</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>1.124700813143821</v>
+        <v>0.9727249466531098</v>
       </c>
       <c r="D11">
-        <v>0.2608765961997539</v>
+        <v>0.3412645192867241</v>
       </c>
       <c r="E11">
         <v>0.9453198952569541</v>
